--- a/P0017/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0017/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0017\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0017/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1265B3EF-BFEE-442B-A569-1D907D8D6385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{1265B3EF-BFEE-442B-A569-1D907D8D6385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF2925E8-A9E8-4463-A086-DD76F1F645AC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="103">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -101,12 +101,18 @@
     <t>INFORME 01-MOJANA</t>
   </si>
   <si>
-    <t>s3://foa_puj_curada/P0017/02_PRODUCTOS/PRODUCTO 01/INFORME 01-MOJANA.pdf</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/PRODUCTO 01/INFORME 01-MOJANA.pdf</t>
   </si>
   <si>
     <t>Fundación Herencia Ambiental Caribe</t>
   </si>
   <si>
+    <t>Fondo Adaptación</t>
+  </si>
+  <si>
+    <t>MinHacienda</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
@@ -116,7 +122,7 @@
     <t>Informe</t>
   </si>
   <si>
-    <t>PDF</t>
+    <t>pdf</t>
   </si>
   <si>
     <t xml:space="preserve">El informe establece un marco conceptual y un plan de acción para la gestión participativa de la Mojana. Su aplicación consta de la socialización, contextualización e inicio de la identificación de actores para la gestión participativa socio-económica y cultural del proyecto y la Gobernanza del Agua. Busca caracterizar y definir el modelo cultural del territotio para adelantar la gestión participativa socio-económica y cultural del proyecto. El informe adirma que se implementará una estrategua de participación comunitaria para acompañar la estructuración del proyecto, con el fin de garantizar la inclusión local en los productos técnicos. Esta estrategia comprende la realización de una serie de talleres con los líderes comunitarios, representantes de organizaciones de base y re instituciones locales y tendrán un componente de educación ambiental. </t>
@@ -128,7 +134,7 @@
     <t>Aunque el trabajo de campo para la realización de estos informes fue hace 10 años, la metodología y el contenido siguen siendo relevantes para caracterizar los conflictos sociales y socioambientales alrededor de la gestión del agua y el territorio en varios de los municipios de La Mojana</t>
   </si>
   <si>
-    <t>Gestión del riesgo;Degradación ecológica; Tenencia y uso de la tierra: Plan de acción; Participación comunitaria</t>
+    <t>Gestión del riesgo, degradación ecológica, tenencia y uso de la tierra, Plan de acción, participación comunitaria</t>
   </si>
   <si>
     <t>PR0002</t>
@@ -137,13 +143,17 @@
     <t>1. INFORME 02</t>
   </si>
   <si>
-    <t>s3://foa_puj_curada/P0017/02_PRODUCTOS/PRODUCTO 02/1. INFORME 02.pdf"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este informe plantea la implementación de estrategias de participación comunitaria que se requieren durante la etapa de estructuración del Plan de Acción para la intervención integral en la región de la Mojana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al ser un mapa de actores, el informe se propone hacer un barrido sistemático de la información de actores para retroalimentar una base de información para el proyecto.  Busca definir con los actores comunitarios e institucionales los principales problemas y conflictos socioambientales en el territorio. </t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/PRODUCTO 02/1. INFORME 02.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este informe corresponde al producto 2 "Identificación y caracterización de actores para la gestión participativa de la región de La Mojana: aproximación al mapa de actores y conflictos del territorio" del contrato Nro.280 de 2014.  El documento plantea la implementación de estrategias de participación comunitaria que se requieren durante la etapa de estructuración del Plan de Acción para la intervención integral en la región de La Mojana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe "Identificación y Caracterización de Actores para la Gestión Participativa de la Región de La Mojana", al ser un mapa de actores, propone hacer un barrido sistemático de la información de actores para retroalimentar una base de información para el proyecto. Busca definir con los actores comunitarios e institucionales los principales problemas y conflictos socioambientales en el territorio. Se estructura en varios capítulos que abordan la dinámica de socialización, la identificación de actores y conflictos, y la formulación de un plan de acción participativo. En la introducción, se establece el contexto del proyecto, que busca mitigar el riesgo de inundaciones y promover la adaptación al cambio climático en la región.
+El primer capítulo detalla la metodología utilizada, que incluye talleres de socialización donde se recopilan inquietudes y preguntas de los participantes. Se destaca la importancia de la participación comunitaria, con un enfoque en la inclusión de voces locales para identificar prioridades y necesidades. En este sentido, se realizaron dinámicas interactivas, como "Tejiendo la Trama", que fomentaron la discusión sobre temas clave como inundaciones, sequías, cultura, conflicto y gobernanza.
+El segundo capítulo se centra en la identificación de actores relevantes en la región, analizando sus roles y relaciones en el contexto de la gestión del riesgo. Se presenta un mapa de actores y conflictos, que permite visualizar las interacciones y tensiones existentes, así como las oportunidades para la colaboración.
+Las conclusiones del informe subrayan la necesidad de un enfoque participativo y colaborativo en la gestión de recursos y conflictos en La Mojana. Se enfatiza que la inclusión de la comunidad en la toma de decisiones es fundamental para el éxito del proyecto. Además, se identifican conflictos prioritarios que requieren atención inmediata y se proponen estrategias para abordarlos, destacando la importancia de la gobernanza y la comunicación efectiva entre los actores involucrados. En resumen, el informe aboga por un proceso de gestión participativa que empodere a las comunidades locales y promueva un desarrollo sostenible en la región.
+</t>
   </si>
   <si>
     <t>Si</t>
@@ -152,22 +162,22 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/PRODUCTO 02/2. ANEXOS - I CICLO TALLERES.pdf</t>
   </si>
   <si>
-    <t>Mapa de actores; conflictos territoriales; conflictos socioambientales; Gestión social participativa; Saberes locales</t>
+    <t>Mapa de actores, conflictos territoriales, conflictos socioambientales, gestión social participativa, saberes locales</t>
   </si>
   <si>
     <t>PR0003</t>
   </si>
   <si>
-    <t>INFORME 03.MODELO CULTURAL DE LA MOJANA observaciones</t>
+    <t>INFORME 03.MODELO CULTURAL DE LA MOJANA</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/PRODUCTO 03/INFORME 03.MODELO CULTURAL DE LA MOJANA. docx.pdf</t>
   </si>
   <si>
-    <t>El informe plantea la importancia del entendimiento del modelo cultural que contiene formas especiales de intervención y adaptación del territorio, asi como problemas estructurales que aquejan al territorio</t>
-  </si>
-  <si>
-    <t>El informe justifica en su estructura la importancia del estudio del contexto histórico de la Mojana, construye una línea de tiempo y busca definir una línea base productiva para la redefinición de un modelo cultural del territorio. Resalta los elementos adaptativos de la cultura anfibia</t>
+    <t>El informe plantea la importancia del entendimiento del modelo cultural que contiene formas especiales de intervención y adaptación del territorio, así como problemas estructurales que aquejan al territorio.</t>
+  </si>
+  <si>
+    <t>El informe justifica en su estructura la importancia del estudio del contexto histórico de La Mojana, construye una línea de tiempo y busca definir una línea base productiva para la redefinición de un modelo cultural del territorio. Resalta los elementos adaptativos de la cultura anfibia.</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/PRODUCTO 03/ANEXOS INFORME 03-MOJANA.pdf</t>
@@ -176,7 +186,7 @@
     <t>El informe presenta un contexto histórico relevante para comprender la dimensión de la toma de decisiones en la región</t>
   </si>
   <si>
-    <t>Adaptación; línea de tiempo; Modelo cultural</t>
+    <t xml:space="preserve">Adaptación, línea de tiempo, modelo cultural. </t>
   </si>
   <si>
     <t>PR0004</t>
@@ -188,16 +198,16 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/PRODUCTO 04/INFORME 04 MOJANA .pdf</t>
   </si>
   <si>
-    <t xml:space="preserve"> El documento es un informe que analiza la prospectiva de la gestión del riesgo desde una perspectiva local y comunitaria en 11 municipios de la región de La Mojana</t>
-  </si>
-  <si>
-    <t>El informe esta estructurado en los siguientes temas: primero, caracterización de actores institucionales y locales convocados y participantes en los talleres de tres nodos de la regió. Segundo, construcción colectiva de la visión de gestión del riesgo para La Mojana a futuro. Tercero, escenarios seleccionados para la solución integral de amenazas como inundaciones, contaminación, falta de ordenamiento territorial y saneamiento básico. Cuerto, identificación y análisis de conflictos generados por las amenazas y soluciones propuestas por actores locales. Quinto, estrategias de participación comunitaria para reducción del riesgo y vulnerabilidad frente a amenazas, incluyendo programas de formación, gobernanza del agua, redes comunitarias, alertas tempranas, gestión en comunidades educativas, y fortalecimiento de procesos productivos sostenibles.</t>
+    <t>El documento corresponde al informe 4 denominado “Análisis de la prospectiva de la gestión del riesgo para la implementación de estrategias y resolución de conflictos entre actores”. El cual hace parte del Ciclo III: Prospectiva social, gestión del riesgo del proyecto Plan de acción para la reducción del riesgo de inundaciones y la adaptación al cambio climático en la región de La Mojana. El informe recopila la información y análisis realizados durante el tercer ciclo de gestión participativa del proyecto. Esta información incluye: Análisis de los actores convocados y que participaron en la construcción colectiva de la visión para la gestión del riesgo, los escenarios seleccionados para la solución integral de las amenazas, análisis de los compromisos asumidos por los actores locales, estudios de los conflictos generados por las amenazas en el territorio y las soluciones propuestas por los actores locales; y finalmente, las estrategias de participación comunitaria para la reducción del riesgo y la vulnerabilidad frente a las amenazas del territorio.</t>
+  </si>
+  <si>
+    <t>El informe está estructurado en las siguientes secciones: primera, caracterización y análisis de actores institucionales y locales convocados, y participantes en los talleres de tres nodos de la región. Segunda, descripción de la metodología, resultados y análisis de la construcción colectiva de la visión de gestión del riesgo para La Mojana a futuro. Tercera, planteamiento de los escenarios seleccionados para la solución integral de amenazas. Los escenarios seleccionados fueron: Amenaza de inundación, amenaza de contaminación con mercurio y agroquímicos, falta de ordenamiento territorial y falta de saneamiento básico. Cuarta, identificación y análisis de conflictos generados por las amenazas y soluciones propuestas por actores locales. Quinta, planteamiento de las estrategias de participación comunitaria para reducción del riesgo y vulnerabilidad frente a amenazas, incluyendo programas de formación, gobernanza del agua, redes comunitarias, alertas tempranas, gestión en comunidades educativas, y fortalecimiento de procesos productivos sostenibles.</t>
   </si>
   <si>
     <t>El informe es, tal vez el único, de toda la información encontrada en la revisión que propone estategias de participación y acción comunitaria concertadas en los talleres con integrantes de las comunidades locales.</t>
   </si>
   <si>
-    <t>Gestión del riesgo Amenazas Vulnerabilidad Conflictos Participación comunitaria Ordenamiento territorial Saneamiento básico Adaptación al cambio climático Gobernanza del agua</t>
+    <t>Gestión del riesgo, amenazas, vulnerabilidad, conflictos, participación comunitaria, ordenamiento territorial, saneamiento básico, adaptación al cambio climático, gobernanza del agua.</t>
   </si>
   <si>
     <t>PR0005</t>
@@ -206,16 +216,19 @@
     <t>INFORME 05. PLAN INDICATIVO DE ACCIÓN SOCIAL_CORREGIDO</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/PRODUCTO 05/INFORME 05. PLAN INDICATIVO DE ACCIÓN SOCIAL_CORREGIDO.pdf"</t>
-  </si>
-  <si>
-    <t>El documento es un plan indicativo de acción social que busca contribuir al Plan de Acción Integral para la Reducción del Riesgo de Inundación y Adaptación al Cambio Climático en la región de La Mojana en Colombia. Está estructurado en cuatro líneas de acción</t>
-  </si>
-  <si>
-    <t>El documento presenta un plan indicativo de acción social que busca contribuir al "Plan de Acción Integral para la Reducción del Riesgo de Inundación y Adaptación al Cambio Climático en la Región de La Mojana". El plan está estructurado en cuatro líneas de acción: consolidación de actores, gestión del riesgo, adaptación al cambio climático y gobernanza del agua, desarrolladas a través de un proceso metodológico participativo con las comunidades.</t>
-  </si>
-  <si>
-    <t>Sin observaciones</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/PRODUCTO 05/INFORME 05. PLAN INDICATIVO DE ACCIÓN SOCIAL_CORREGIDO.pdf</t>
+  </si>
+  <si>
+    <t>El informe se centra en la formulación y ejecución de un plan estratégico para la gestión del riesgo de inundaciones y la adaptación al cambio climático en la región de La Mojana, que abarca varios municipios de los departamentos de Sucre y Córdoba en Colombia. Este informe, elaborado en el contexto de la problemática ambiental y social de la región, busca establecer un marco de acción que permita a las comunidades locales enfrentar los desafíos derivados de fenómenos climáticos extremos. El principal objetivo del documento es proporcionar un instrumento gerencial que facilite a la administración local el seguimiento y evaluación de su gestión en relación con el Plan de Desarrollo. Esto incluye la identificación de metas, la rendición de cuentas a la comunidad y la promoción del control social. El plan se articula en torno a la reducción del riesgo de inundaciones y la adaptación al cambio climático, buscando mejorar la resiliencia de las comunidades afectadas. El informe se estructura en cinco capítulos: 1. Introducción: se enmarca el plan indicativo en el contexto del Plan de Acción para la Reducción del Riesgo de Inundaciones y la Adaptación al Cambio Climático en La Mojana. 2. Procesos metodológicos: se describe la metodología utilizada para el desarrollo de talleres participativos, que incluyeron la identificación de actores locales, la recolección de información primaria y secundaria, y la caracterización de problemáticas socioambientales. 3. Objetivos del plan indicativo: se presentan los objetivos generales y específicos que guiarán la implementación del plan, enfocados en la gestión del riesgo y la promoción de la participación comunitaria. 4. Contenido y estructura del plan indicativo: se detalla la matriz que organiza anualmente las estrategias, incluyendo objetivos, programas, proyectos, indicadores y metas de resultado. Se enfatiza la importancia de la actualización periódica del plan en función de la ejecución reportada. 5. Desarrollo del plan indicativo de acción: se abordan las estrategias específicas para la implementación del plan, incluyendo la capacitación de organizaciones locales y la creación de plataformas comunitarias para la gestión del riesgo.</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>El informe se centra en la formulación de un marco estratégico para la reducción del riesgo de inundaciones y la adaptación al cambio climático en la región de La Mojana, Colombia. A través de un enfoque participativo y metodológico, se han obtenido resultados significativos que permiten delinear acciones concretas para abordar las vulnerabilidades de las comunidades afectadas. La metodología utilizada para este estudio se basó en un enfoque participativo que incluye la recolección de información a través de talleres con actores locales, entrevistas y la elaboración de un sociograma para identificar conflictos y actores clave. Se utilizó un software de gestión de datos para organizar la información recolectada y facilitar el análisis de las problemáticas identificadas. Entre los resultados claves del informe, se reporta un avance del 94% en la línea base del proyecto “Intervención Integral para la reducción del riesgo de inundaciones y adaptación al cambio climático en La Mojana”, lo que indica un sólido progreso en la identificación de necesidades y recursos. Para ello se llevaron a cabo talleres participativos que involucraron a diversas comunidades, permitiendo la identificación de prioridades y la definición de programas y proyectos específicos para la gestión del riesgo. En cuanto a las estrategias de acción social, se establecieron líneas de acción social que incluyen la capacitación de comunidades, la mejora de la infraestructura de saneamiento y drenaje, y la promoción de prácticas sostenibles para mitigar el impacto de inundaciones. Así mismo, Se desarrolló una matriz de indicadores para el seguimiento y evaluación de las acciones implementadas, facilitando la medición del impacto y la efectividad de las intervenciones. Finalmente, se identificaron acciones para fortalecer la resiliencia de las comunidades, enfocándose en la educación y sensibilización sobre el cambio climático y la gestión del riesgo. En conclusión, la implementación del Plan Indicativo de Acción Social es esencial para abordar de manera integral los desafíos de riesgo de inundaciones y adaptación al cambio climático en La Mojana.</t>
+  </si>
+  <si>
+    <t>A pesar de los avances reportados, el documento presenta algunos vacíos de información, especialmente en la sección de resultados. Sería útil incluir datos cuantitativos más específicos sobre el impacto de las acciones previas y cómo se medirán los resultados futuros. Esto ayudaría a establecer una línea base más sólida y a evaluar el progreso de manera más efectiva.</t>
   </si>
   <si>
     <t>Plan indicativo de acción social, Gestión participativa, Gestión del riesgo Adaptación al cambio climático Gobernanza del agua</t>
@@ -227,6 +240,9 @@
     <t>ACUERDO DE GOBERNANZA PARA LA MOJANA-Producto 6-Oct 20</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/PRODUCTO 06/ACUERDO DE GOBERNANZA PARA LA MOJANA-Producto 6-Oct 20.pdf</t>
+  </si>
+  <si>
     <t>El documento presenta una propuesta de Acuerdo de Gobernanza del Agua para La Mojana como parte del Plan de Acción Integral para la Reducción del Riesgo de Inundación y Adaptación al Cambio Climático de La Mojana. El objetivo general es establecer mecanismos de sostenibilidad para las acciones del plan a través de un modelo de gobernanza del agua que involucre a actores locales, regionales y nacionales. La metodología incluye el desarrollo de lineamientos, estrategias y principios rectores para la construcción del acuerdo de gobernanza, así como la propuesta de mecanismos de implementación.</t>
   </si>
   <si>
@@ -248,7 +264,7 @@
     <t>INFORME RADICADO PRODUCTOS 7 Y 8</t>
   </si>
   <si>
-    <t>s3://foa_puj_curada/P0017/02_PRODUCTOS/PRODUCTO 07/INFORME RADICADO PRODUCTOS 7 Y 8.pdf</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/PRODUCTO 07/INFORME RADICADO PRODUCTOS 7 Y 8.pdf</t>
   </si>
   <si>
     <t>El documento presenta los resultados de la implementación de una metodología de gestión participativa en la región de La Mojana, Colombia. El objetivo general es construir de manera colectiva recomendaciones para incorporar al Plan de Acción de reducción del riesgo de inundaciones y adaptación al cambio climático en la zona. El enfoque es participativo, involucrando a actores locales e institucionales en la caracterización de problemáticas y propuestas de solución. La metodología incluyó talleres, ejercicios de línea de tiempo, mapeo de actores y construcción de visiones compartidas. El estudio se realizó en 2016, abarcando diferentes municipios de La Mojana. Los hallazgos revelan las principales problemáticas socioambientales de la región y las propuestas de los actores locales para abordarlas, destacando la importancia de la gobernanza del agua y la adaptación al cambio climático.</t>
@@ -270,219 +286,77 @@
     <t>Gestión participativa, metodología, diagnóstico, recomendaciones, plan de acción, modelo de gobernanza</t>
   </si>
   <si>
-    <t>PR0008</t>
-  </si>
-  <si>
-    <t>CICLO IV</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/TALLERES NODALES/CICLO IV"</t>
-  </si>
-  <si>
-    <t>Esta carpeta contiene 7 documentos que describen los talleres que se llevaron a cabo durante el ciclo IV en los municipios de Ayapel, Sincelejo y Majagual. Allí están demanera detalla los resultados y reflexiones que surgieron de cada taller.</t>
-  </si>
-  <si>
-    <t>En la carpeta hay 7 documentos correspondientes a las memorias de los talleres llevados a cabo en tres municipios durando el ciclo IV. Tres de los documentos contienen la descripción del taller, la lista de participantes, las actividades y los resultados de cada taller. El resto de documento contienen las listas de asistencia de los tres municipios.</t>
+    <t>PR0009</t>
+  </si>
+  <si>
+    <t>INFORME DE ACTIVIDADES CICLO V</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/TALLERES NODALES/CICLO V/INFORME DE ACTIVIDADES CICLO V.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento "INFORME DE ACTIVIDADES CICLO V" recopila la ejecución del Quinto Ciclo de Talleres nodales “Socialización, Validación y Retroalimentación del Plan de Acción Integral para La Reducción del Riesgo de Inundaciones y Adaptación al Cambio Climático en La Región de La Mojana”. Este ciclo permitió abordar una serie de acciones y trabajos con los actores locales para avanzar en la definición de un modelo de Gobernanza del Agua y la adaptación al Cambio Climático. Al mismo tiempo, congregó los intereses y las voluntades de los actores locales como aporte e insumos para el Plan de Acción de La Mojana. </t>
+  </si>
+  <si>
+    <t>docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento corresponde al informe de los talleres llevados a cabo en los municipios de Ayapel, Sincelejo y Majagual. Allí están de manera detalla los resultados y reflexiones que surgieron de cada taller. La participación de los actores locales e instituciones en el Ciclo Quinto, fue de un 68% de asistencia. Los talleres permitieron validar los diferentes programas y proyectos propuestos en el Plan de Acción por parte de los actores comunitarios. Así mismo se firmó el acuerdo para la gobernanza y la adaptación por parte de los actores locales como un compromiso de apoyo a la continuación del proceso en pro al mejoramiento de las condiciones actuales de sus comunidades. Los documentos anexos contienen la descripción del taller, la lista de participantes, las actividades y los resultados de cada taller. </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/TALLERES NODALES/CICLO V</t>
   </si>
   <si>
     <t>Los documentos que están en esta carpeta no son tan relevantes para la toma de decisiones, así como tampoco su metodología, ya que son las memorias textuales de los talleres. Sin embargo, hay información primaria que surgió de los talleres.</t>
   </si>
   <si>
-    <t>Taller, participación, problemas, soluciones, dinámicas</t>
-  </si>
-  <si>
-    <t>PR0009</t>
-  </si>
-  <si>
-    <t>CICLO V</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/TALLERES NODALES/CICLO V"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta caperta contiene 7 documentos que recogen la ejecución del Quinto Ciclo de Talleres “Socialización, Validación y Retroalimentación del Plan de Acción Integral para La Reducción del Riesgo de Inundaciones y Adaptación al Cambio Climático en La Región de La Mojana”. Este ciclo permitió abordar una serie de acciones y trabajos con los actores locales para avanzar en la definición de un modelo de Gobernanza del Agua y la adaptación al Cambio Climático. Al mismo tiempo, congregó los intereses y las voluntades de los actores locales como aporte e insumos para el Plan de Acción de La Mojana. </t>
-  </si>
-  <si>
-    <t>En la carpeta hay 7 documentos correspondientes a las memorias de los talleres llevados a cabo en los municipios de Ayapel, Sincelejo y Majagual. Allí están demanera detalla los resultados y reflexiones que surgieron de cada taller. Tres de los documentos contienen la descripción del taller, la lista de participantes, las actividades y los resultados de cada taller. Otros tres documentos contienen las listas de asistencia de los tres municipios. Y hay un último documento que corresponde al informe de actividades y de participación del ciclo V.</t>
-  </si>
-  <si>
     <t>Modelo de gobernanza, agua, cambio climático, talleres, participación.</t>
   </si>
   <si>
-    <t>PR0010</t>
-  </si>
-  <si>
-    <t>CICLO I</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/TALLERES NODALES/CICLO I</t>
-  </si>
-  <si>
-    <t>La carpeta presenta documentos con los resultados y conclusiones de un taller de gestión participativa realizado en Ayapel, Majagual y Sincelejo, en abril de 2015, enfocado en la formulación de un Plan de Acción Integral para la intervención en la región de La Mojana</t>
-  </si>
-  <si>
-    <t>La carpeta presenta documentos con los resultados y conclusiones de un taller de gestión participativa realizado en Ayapel, Majagual y Sincelejo, en abril de 2015, enfocado en la formulación de un Plan de Acción Integral para la intervención en la región de La Mojana. _x000D_
-_x000D_
-Resultados Clave:_x000D_
-Participación Activa: Se registró la asistencia de diversos actores sociales y comunitarios, quienes contribuyeron a la identificación de problemáticas locales y a la construcción de conceptos relacionados con la gestión del agua, como sequía e inundación._x000D_
-_x000D_
-Identificación de Problemas: Los participantes señalaron las principales problemáticas y conflictos en la región, incluyendo la gestión del agua, la infraestructura inadecuada y la falta de coordinación entre actores locales._x000D_
-_x000D_
-Construcción de Conceptos: Se definieron conceptos clave relacionados con la gestión hídrica, destacando la importancia de entender la meteorología y el comportamiento histórico de las inundaciones en la región._x000D_
-_x000D_
-Compromisos y Acuerdos: Se establecieron compromisos por parte del Fondo Adaptación para responder a las inquietudes planteadas durante el taller, así como la creación de matrices de falencias y oportunidades para cada municipio._x000D_
-_x000D_
-Evaluación del Taller: Los participantes evaluaron positivamente la organización del taller, la claridad de la información presentada y la oportunidad de expresar sus ideas y preocupaciones._x000D_
-_x000D_
-Conclusiones:_x000D_
-La gestión del agua en La Mojana requiere un enfoque integral que considere las particularidades geográficas y climáticas de la región._x000D_
-Es fundamental fomentar la participación activa de todos los actores sociales para garantizar la sostenibilidad de las intervenciones propuestas._x000D_
-La memoria histórica y el conocimiento local son recursos valiosos que deben ser incorporados en la planificación y ejecución de proyectos._x000D_
-Recomendaciones:_x000D_
-Promover la capacitación continua de los actores locales en temas de gestión hídrica y adaptación al cambio climático._x000D_
-Establecer mecanismos de comunicación y coordinación entre los diferentes niveles de gobierno y la comunidad para abordar de manera efectiva las problemáticas identificadas._x000D_
-Realizar un seguimiento y evaluación periódica de las acciones implementadas para ajustar las estrategias según sea necesario.</t>
-  </si>
-  <si>
-    <t>Contenido Relevante: Se destaca la relevancia del contenido, ya que aborda problemáticas críticas de la región de La Mojana, como la gestión del agua y los conflictos socioambientales. La inclusión de la historia de la región y la identificación de actores clave son aspectos positivos que enriquecen el análisis y proporcionan un contexto necesario para la toma de decisiones._x000D_
-_x000D_
-Participación Comunitaria: Un hallazgo positivo es el énfasis en la participación de actores locales. El documento refleja un enfoque participativo que es esencial para el éxito de cualquier plan de acción en contextos comunitarios. La recopilación de opiniones y la identificación de problemas por parte de los participantes son fundamentales para garantizar que las soluciones propuestas sean pertinentes y efectivas._x000D_
-_x000D_
-Metodología Participativa: La utilización de metodologías participativas, como dinámicas de grupo y mesas de trabajo, es un aspecto positivo que fomenta la inclusión y el diálogo. Sin embargo, sería beneficioso incluir una descripción más detallada de estas metodologías, así como de los criterios utilizados para seleccionar a los participantes, para entender mejor la representatividad de las opiniones recogidas._x000D_
-_x000D_
-Vacíos de Información: A pesar de los aspectos positivos, el documento presenta algunos vacíos de información. Por ejemplo, no se proporciona un análisis profundo de las problemáticas identificadas ni se detallan las posibles soluciones o acciones a seguir. Esto podría limitar la utilidad del documento como herramienta para la toma de decisiones, ya que los responsables de implementar el plan podrían necesitar más información para actuar de manera efectiva._x000D_
-_x000D_
-Compromisos y Seguimiento: Aunque se mencionan compromisos asumidos por el Fondo Adaptación, el documento carece de un plan de seguimiento claro que detalle cómo se evaluarán y cumplirán estos compromisos. Incluir un marco de seguimiento y evaluación sería crucial para asegurar la implementación efectiva de las acciones propuestas._x000D_
-_x000D_
-Relevancia para la Toma de Decisiones: En general, el documento es relevante para la toma de decisiones en la región, ya que proporciona un marco para entender las dinámicas locales y los desafíos que enfrenta La Mojana. Sin embargo, para maximizar su impacto, sería beneficioso que se complementara con un análisis más profundo y un plan de acción más detallado que guíe a los actores involucrados en la implementación de soluciones efectivas.</t>
-  </si>
-  <si>
-    <t>Gestión hídrica_x000D_
-Participación comunitaria_x000D_
-Inundaciones_x000D_
-Sequía_x000D_
-Plan de Acción Integral_x000D_
-La Mojana_x000D_
-Ayapel_x000D_
-Conflictos sociales_x000D_
-Infraestructura_x000D_
-Meteorología_x000D_
-Compromisos_x000D_
-Evaluación de talleres_x000D_
-Adaptación al cambio climático_x000D_
-Historia regional_x000D_
-Actores sociales</t>
-  </si>
-  <si>
     <t>PR0011</t>
   </si>
   <si>
-    <t>CICLO II</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/TALLERES NODALES/CICLO II</t>
-  </si>
-  <si>
-    <t>La carpeta presenta ldocumentos con los resultados del ciclo II de talleres participativos realizados en La Mojana, cuyo objetivo principal fue la elaboración de un Plan de Acción Integral para la reducción del riesgo de inundaciones y la adaptación al cambio climático. La actividad reunió a aproximadamente 100 actores locales, incluyendo comunidades, instituciones y organizaciones, para discutir y definir estrategias que promuevan un uso sostenible del territorio.</t>
-  </si>
-  <si>
-    <t>Resultados Clave:_x000D_
-Identificación de Elementos Adaptativos: Se identificaron elementos culturales y prácticas ancestrales que contribuyen a la adaptación al cambio climático, como la construcción de terraplenes y la siembra de cultivos mixtos._x000D_
-Participación Comunitaria: Se destacó la importancia de la participación activa de las comunidades en la gestión del riesgo, enfatizando que el éxito del fondo de adaptación depende de su involucramiento._x000D_
-Capacitación y Recursos: Se propuso la necesidad de capacitar a las comunidades y proporcionar recursos para la implementación de prácticas sostenibles y la gestión del agua._x000D_
-Cultura y Adaptación: Se subrayó la relación entre cultura y adaptación, resaltando que la capacidad de adaptación de los humanos está íntimamente ligada a su cultura y conocimiento del entorno._x000D_
-Conclusiones:_x000D_
-La adaptación al cambio climático en La Mojana requiere un enfoque integral que considere tanto los aspectos socioeconómicos como culturales._x000D_
-Es fundamental que las comunidades se empoderen y participen activamente en la gestión de los recursos naturales y en la implementación de estrategias de adaptación._x000D_
-La información recabada durante el taller es valiosa y debe ser utilizada para guiar futuras acciones y decisiones en la región._x000D_
-Recomendaciones:_x000D_
-Fomentar la creación de redes de colaboración entre las comunidades y las instituciones para asegurar la sostenibilidad de las iniciativas._x000D_
-Implementar programas de capacitación continua que fortalezcan las capacidades locales en gestión del riesgo y adaptación al cambio climático._x000D_
-Establecer mecanismos de seguimiento y evaluación para medir el impacto de las acciones implementadas.</t>
-  </si>
-  <si>
-    <t>Adaptación_x000D_
-Cambio climático_x000D_
-Gestión del riesgo_x000D_
-Inundaciones_x000D_
-La Mojana_x000D_
-Participación comunitaria_x000D_
-Capacitación_x000D_
-Recursos naturales_x000D_
-Cultura_x000D_
-Territorio_x000D_
-Sostenibilidad_x000D_
-Estrategias_x000D_
-Empoderamiento_x000D_
-Prácticas ancestrales_x000D_
-Colaboración</t>
-  </si>
-  <si>
-    <t>PR0012</t>
-  </si>
-  <si>
-    <t>CICLO III</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/TALLERES NODALES/CICLO III"</t>
-  </si>
-  <si>
-    <t>La carpeta contiene las memorias del ciclo III de los talleres realizados en Majagual, Ayapel y Sinceleco, y presentan los resultados y conclusiones de un taller de gestión participativa realizado en la región de La Mojana, con el objetivo de abordar la gestión del riesgo y promover el desarrollo sostenible.</t>
-  </si>
-  <si>
-    <t>Resultados Clave:_x000D_
-Construcción de Visión: Se logró definir una visión integral para el territorio de La Mojana, enfocada en la gobernanza, la educación, la conservación de recursos hídricos y la biodiversidad, con un horizonte hacia el 2030._x000D_
-Identificación de Conflictos: Se identificaron conflictos significativos relacionados con el uso inadecuado del suelo y los recursos naturales, así como la falta de un Plan de Ordenamiento Territorial (POT) actualizado._x000D_
-Compromisos Comunitarios: Los participantes establecieron 12 compromisos para enfrentar las amenazas identificadas, reconociendo la importancia de la participación activa de la comunidad._x000D_
-Percepciones sobre Contaminación: Se destacó una preocupación recurrente sobre la presencia de mercurio en fuentes hídricas y su impacto en la salud y el ambiente, lo que requiere atención inmediata._x000D_
-Capacitación y Participación: Se enfatizó la necesidad de capacitar a las comunidades y administraciones locales en planificación y uso del suelo, así como en la formulación del POT._x000D_
-Conclusiones:_x000D_
-La participación activa de la comunidad es fundamental para la gestión del riesgo y el desarrollo sostenible en La Mojana._x000D_
-Es necesario un enfoque integral que contemple la educación, la gobernanza y la conservación ambiental para lograr un desarrollo sostenible._x000D_
-La actualización del POT es crucial para abordar las necesidades locales y promover un uso adecuado de los recursos naturales._x000D_
-Recomendaciones:_x000D_
-Implementar programas de capacitación para las comunidades en temas de gestión del riesgo y planificación territorial._x000D_
-Promover la colaboración entre diferentes actores (gobernantes, comunidades, y entidades) para la formulación y actualización del POT._x000D_
-Desarrollar estrategias específicas para mitigar la contaminación por mercurio y otros contaminantes en la región.</t>
-  </si>
-  <si>
-    <t>Participación Comunitaria: Un hallazgo positivo es la fuerte énfasis en la participación comunitaria. El documento destaca cómo la inclusión de diversas voces y perspectivas en el taller contribuyó a una visión más integral y representativa de las necesidades y preocupaciones de la región._x000D_
-_x000D_
-Identificación de Problemas: Se observa un enfoque adecuado en la identificación de problemas críticos, como la falta de un Plan de Ordenamiento Territorial (POT) actualizado y la contaminación por mercurio. Sin embargo, sería beneficioso incluir datos cuantitativos o ejemplos específicos que respalden estas afirmaciones, lo que podría fortalecer la argumentación._x000D_
-_x000D_
-Compromisos y Acciones: La definición de compromisos por parte de los actores participantes es un aspecto positivo, ya que muestra un compromiso colectivo hacia la mejora de la situación en La Mojana. Sin embargo, el documento podría beneficiarse de un seguimiento más detallado sobre cómo se implementarán estos compromisos y quiénes serán los responsables._x000D_
-_x000D_
-Recomendaciones: Aunque se presentan recomendaciones, estas podrían ser más específicas y detalladas. Por ejemplo, se sugiere la capacitación de comunidades, pero no se especifica el tipo de capacitación ni los recursos necesarios para llevarla a cabo._x000D_
-_x000D_
-Falta de Datos Contextuales: El documento carece de información contextual adicional que podría ser útil para entender mejor la situación en La Mojana. Datos sobre la demografía, economía local, y antecedentes históricos de gestión del riesgo en la región podrían enriquecer el análisis._x000D_
-_x000D_
-Relevancia para la Toma de Decisiones: La información presentada es altamente relevante para la toma de decisiones a nivel local y regional. Los hallazgos y compromisos delineados pueden servir como base para la formulación de políticas y estrategias de intervención en la gestión del riesgo y el desarrollo sostenible._x000D_
-_x000D_
-Conclusiones y Reflexiones: Las conclusiones son adecuadas, pero podrían beneficiarse de una mayor profundización en las implicaciones de los hallazgos. Reflexiones sobre cómo estos resultados pueden influir en futuras iniciativas o políticas serían valiosas.</t>
-  </si>
-  <si>
-    <t>Gestión del riesgo_x000D_
-Desarrollo sostenible_x000D_
-La Mojana_x000D_
-Gobernanza_x000D_
-Educación ambiental_x000D_
-Recursos hídricos_x000D_
-Biodiversidad_x000D_
-Plan de Ordenamiento Territorial (POT)_x000D_
-Participación comunitaria_x000D_
-Compromisos sociales_x000D_
-Contaminación_x000D_
-Mercurio_x000D_
-Capacitación_x000D_
-Conflictos ambientales_x000D_
-Prospectiva social</t>
+    <t xml:space="preserve">MEMORIA II CICLO AYAPEL </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/TALLERES NODALES/CICLO II/MEMORIA II CICLO AYAPEL .pdf</t>
+  </si>
+  <si>
+    <t>El documento corresponde a la memoria del taller de gestión participativa: ciclo II “Aproximación a un modelo cultural adaptativo y sus escenarios ´prospectivos”, realizado en el municipio de Ayapel, Córdoba. El informe documenta y evalúa el taller, el cual se centró la socialización y análisis de actores locales que permitan la recuperación de técnicas adaptativas basadas en el uso eficiente del territorio, además de, definir los escenarios prospectivos a partir del uso, aprovechamiento y manejo del territorio desde el punto de vista socioeconómico y cultural.</t>
+  </si>
+  <si>
+    <t>El documento recopila la información y actividades realizadas en el taller de gestión participativa realizado en Ayapel. El informe describe la metodología utilizada, los resultados y recomendaciones, la lista de asistencia y la agenda del taller. En cuanto a los resultados clave de las actividades realizadas, el taller trato los siguientes temas: Evaluación de impactos ambientales, en donde los participantes pudieron expresar sus preocupaciones de los impactos causados por actividades como la minería y el uso de agroquímicos; Modelo cultural y adaptación, del cual se realizo un análisis de modelos culturales de pueblos indígenas de la región especialmente los zenúes; y por último, la identificación de zonas relevantes en el municipio.</t>
+  </si>
+  <si>
+    <t>El documento contiene información privada y personal ya que presenta una copia de las lista de asistentes al taller.</t>
+  </si>
+  <si>
+    <t>Adaptación, Ayapel, cambio climático, gestión del riesgo, inundaciones, participación comunitaria, capacitación, recursos naturales, cultura, territorio, sostenibilidad, estrategias, empoderamiento, prácticas ancestrales, colaboración.</t>
+  </si>
+  <si>
+    <t>PR0013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEMORIA NODO MAJAGUAL </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0017/02_PRODUCTOS/TALLERES NODALES/CICLO II/MEMORIA NODO MAJAGUAL .pdf</t>
+  </si>
+  <si>
+    <t>El documento corresponde a la memoria del taller de gestión participativa: ciclo II “Aproximación a un modelo cultural adaptativo y sus escenarios ´prospectivos”, realizado en el municipio de Majagual, Sucre. El informe documenta y evalúa el taller, el cual se centró la socialización y análisis de actores locales que permitan la recuperación de técnicas adaptativas basadas en el uso eficiente del territorio, además de, definir los escenarios prospectivos a partir del uso, aprovechamiento y manejo del territorio desde el punto de vista socioeconómico y cultural.</t>
+  </si>
+  <si>
+    <t>El documento recopila la información y actividades realizadas en el taller de gestión participativa realizado en Majagual. El informe describe la metodología utilizada, los resultados y recomendaciones, la lista de asistencia y la agenda del taller. En cuanto a los resultados clave de las actividades realizadas, el taller trato los siguientes temas: Evaluación de impactos ambientales, en donde los participantes pudieron expresar sus preocupaciones de los impactos causados por actividades como la minería y el uso de agroquímicos; Modelo cultural y adaptación, del cual se realizo un análisis de modelos culturales de pueblos indígenas de la región especialmente los zenúes; y por último, la identificación de zonas relevantes en el municipio.</t>
+  </si>
+  <si>
+    <t>Adaptación, Majagual, cambio climático, gestión del riesgo, inundaciones, participación comunitaria, capacitación, recursos naturales, cultura, territorio, sostenibilidad, estrategias, empoderamiento, prácticas ancestrales, colaboración.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,15 +365,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -513,7 +386,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -575,32 +448,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -621,53 +537,19 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -915,6 +797,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -930,11 +819,10 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -950,26 +838,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R11" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="5" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="3" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1238,18 +1126,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -1259,738 +1147,628 @@
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18" ht="15">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>2015</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="M5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="N5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="4" t="s">
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="P6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="7" spans="1:18" ht="15">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="2">
         <v>2015</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>38</v>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2016</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2016</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2016</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2016</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2016</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
+    <row r="14" spans="1:18" ht="15"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1999,6 +1777,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -2142,37 +1929,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>